--- a/F14_alturas.xlsx
+++ b/F14_alturas.xlsx
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="289">
-  <si>
-    <t>rangos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="288">
   <si>
     <t>individuos</t>
   </si>
@@ -523,9 +520,6 @@
     <t>(16.6,18]</t>
   </si>
   <si>
-    <t>(18,19.4]</t>
-  </si>
-  <si>
     <t>Pera de malaca</t>
   </si>
   <si>
@@ -893,6 +887,9 @@
   </si>
   <si>
     <t>Arbusto</t>
+  </si>
+  <si>
+    <t>rangos (m)</t>
   </si>
 </sst>
 </file>
@@ -1219,629 +1216,629 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>516</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>179</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>180</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>116</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13">
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>646</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>1221</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2715</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1867,251 +1864,251 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>1451</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>1518</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
+      <c r="D13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
+      <c r="D14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
+      <c r="D15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+      <c r="D16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>4582</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2121,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" activeCellId="2" sqref="C18 I17 O16"/>
+      <selection activeCell="O15" activeCellId="2" sqref="C18 I17 O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,614 +2142,602 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>364</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3">
         <v>480</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O3">
         <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4">
         <v>473</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O4">
         <v>168</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5">
         <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O5">
         <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6">
         <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O6">
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7">
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O7">
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O8">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O11">
         <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13">
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16">
-        <v>598</v>
-      </c>
-      <c r="P16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>1130</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2035</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2778,251 +2763,251 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2">
         <v>1286</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3">
         <v>1251</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>487</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8">
         <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
+      <c r="D13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
+      <c r="D14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
+      <c r="D15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
+      <c r="D16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>3763</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3056,466 +3041,466 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I3">
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O3">
         <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I4">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O4">
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5">
         <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I5">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O5">
         <v>9</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6">
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I6">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3541,209 +3526,209 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2">
         <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3">
         <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>819</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3777,462 +3762,462 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I3">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O3">
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I4">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O4">
         <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I5">
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O5">
         <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I6">
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O7">
         <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4251,202 +4236,202 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3">
         <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4">
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C6">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>471</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
